--- a/generated/spreadsheet/permission-in-principle-pip.xlsx
+++ b/generated/spreadsheet/permission-in-principle-pip.xlsx
@@ -1073,8 +1073,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details of the agent acting on behalf of the applicant
-</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1342,8 +1341,7 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact details of the agent acting on behalf of the applicant
-</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1475,9 +1473,7 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details about the applicants for the planning application,
-including their personal information and contact details
-</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1685,8 +1681,7 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact details for the applicant or applicants, including email and phone numbers
-</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -1818,8 +1813,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identifies the national requirement types that apply to this application type
-</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -1853,9 +1847,7 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about any conflicts of interest between the applicant/agent and the planning authority,
-including relationships with staff or elected members
-</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1941,8 +1933,7 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Declaration by the applicant or agent confirming the accuracy of the information provided
-</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -2028,9 +2019,7 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details of proposed development with specific provision for capturing both residential 
-and non-residential elements, including dwelling numbers and non-residential use amounts
-</t>
+          <t>Details of the residential and non-residential parts of the proposed development.</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -2236,9 +2225,7 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about the location and extent of the site where development 
-or works are proposed
-</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -2516,9 +2503,7 @@
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional information about the development site including area, 
-existing use, constraints, and supporting documentation
-</t>
+          <t>Any additional relevant information about the development site.</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">

--- a/generated/spreadsheet/permission-in-principle-pip.xlsx
+++ b/generated/spreadsheet/permission-in-principle-pip.xlsx
@@ -697,7 +697,7 @@
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>The name or title of the document</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">

--- a/generated/spreadsheet/permission-in-principle-pip.xlsx
+++ b/generated/spreadsheet/permission-in-principle-pip.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,9 +440,10 @@
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="34" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="72" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="72" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -473,15 +474,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>field4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>datatype</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>requirement</t>
         </is>
@@ -500,22 +506,27 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -526,22 +537,27 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
           <t>Application types[]</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>A list of planning application types that define the nature of the planning application</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -552,22 +568,27 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>Application sub type</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>Further classification of the application type for specific variations within the main application type</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -578,22 +599,27 @@
       <c r="B5" s="2" t="n"/>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>Planning authority</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -604,22 +630,27 @@
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>Submission date</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>Date the application is submitted in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -630,22 +661,27 @@
       <c r="B7" s="2" t="n"/>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>Modules[]</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>List of required modules for this application that can be used to validate the application</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -656,26 +692,31 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>A reference for the document</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -686,26 +727,31 @@
       <c r="B9" s="2" t="n"/>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>The name or title of the document</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -716,26 +762,31 @@
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>Brief description of what the document contains</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -746,26 +797,31 @@
       <c r="B11" s="2" t="n"/>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Document types[]</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>List of codelist references that the document covers</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -776,30 +832,35 @@
       <c r="B12" s="2" t="n"/>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>A URL pointing to the stored file</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -810,30 +871,35 @@
       <c r="B13" s="2" t="n"/>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>Base64</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -844,30 +910,35 @@
       <c r="B14" s="2" t="n"/>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>Filename</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>Name of the file being uploaded</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -878,30 +949,35 @@
       <c r="B15" s="2" t="n"/>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>MIME type</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -912,30 +988,35 @@
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>Checksum</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -946,30 +1027,35 @@
       <c r="B17" s="2" t="n"/>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>File size</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -980,26 +1066,31 @@
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>The total amount due for the application fee</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1010,26 +1101,31 @@
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>Amount paid</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>The amount paid towards the application fee</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1040,26 +1136,31 @@
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>Transactions[]</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1087,17 +1188,18 @@
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1121,17 +1223,18 @@
           <t>Title</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>The title of the individual</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1155,17 +1258,18 @@
           <t>First Name</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>The first name of the individual</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1189,17 +1293,18 @@
           <t>Last Name</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>The last name of the individual</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1223,17 +1328,18 @@
           <t>Address Text</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1257,17 +1363,18 @@
           <t>Postcode</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1287,17 +1394,18 @@
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1317,17 +1425,18 @@
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="H28" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
+      <c r="I28" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1351,17 +1460,18 @@
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr">
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr">
         <is>
           <t>A reference to an agent object</t>
         </is>
       </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1381,17 +1491,18 @@
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr">
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1415,17 +1526,18 @@
           <t>Phone number</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>A phone number</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1449,17 +1561,18 @@
           <t>Contact priority</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t>The priority of a number</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="H32" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H32" s="2" t="inlineStr">
+      <c r="I32" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1487,17 +1600,18 @@
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr">
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1521,17 +1635,18 @@
           <t>Title</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr">
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <t>The title of the individual</t>
         </is>
       </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1555,17 +1670,18 @@
           <t>First Name</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>The first name of the individual</t>
         </is>
       </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1589,17 +1705,18 @@
           <t>Last Name</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr">
         <is>
           <t>The last name of the individual</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1623,17 +1740,18 @@
           <t>Address Text</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1657,17 +1775,18 @@
           <t>Postcode</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1691,17 +1810,18 @@
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr">
         <is>
           <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1721,17 +1841,18 @@
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr">
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr">
         <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1755,17 +1876,18 @@
           <t>Phone number</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr">
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr">
         <is>
           <t>A phone number</t>
         </is>
       </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1789,17 +1911,18 @@
           <t>Contact priority</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr">
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr">
         <is>
           <t>The priority of a number</t>
         </is>
       </c>
-      <c r="G42" s="2" t="inlineStr">
+      <c r="H42" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H42" s="2" t="inlineStr">
+      <c r="I42" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1823,17 +1946,18 @@
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr">
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr">
         <is>
           <t>List of the document types required for the given application type</t>
         </is>
       </c>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1857,17 +1981,18 @@
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
-      <c r="G44" s="2" t="inlineStr">
+      <c r="H44" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H44" s="2" t="inlineStr">
+      <c r="I44" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1883,17 +2008,18 @@
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr">
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr">
         <is>
           <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1909,17 +2035,18 @@
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr">
         <is>
           <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
-      <c r="G46" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1943,17 +2070,18 @@
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr">
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr">
         <is>
           <t>A name of a person</t>
         </is>
       </c>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1969,17 +2097,18 @@
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr">
         <is>
           <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
-      <c r="G48" s="2" t="inlineStr">
+      <c r="H48" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H48" s="2" t="inlineStr">
+      <c r="I48" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1995,17 +2124,18 @@
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr">
         <is>
           <t>The date the declaration was made</t>
         </is>
       </c>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2029,17 +2159,18 @@
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr"/>
-      <c r="F50" s="2" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr">
         <is>
           <t>Description of proposed development including non-residential development</t>
         </is>
       </c>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2055,17 +2186,18 @@
       </c>
       <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr">
         <is>
           <t>The minimum number of net additional dwellings proposed as part of the development, accounting for any existing dwellings lost and new dwellings created</t>
         </is>
       </c>
-      <c r="G51" s="2" t="inlineStr">
+      <c r="H51" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H51" s="2" t="inlineStr">
+      <c r="I51" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2081,17 +2213,18 @@
       </c>
       <c r="D52" s="2" t="inlineStr"/>
       <c r="E52" s="2" t="inlineStr"/>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr">
         <is>
           <t>The maximum number of net additional dwellings proposed as part of the development, allowing for flexibility in the final housing numbers</t>
         </is>
       </c>
-      <c r="G52" s="2" t="inlineStr">
+      <c r="H52" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H52" s="2" t="inlineStr">
+      <c r="I52" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2111,17 +2244,18 @@
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr">
         <is>
           <t>Type of measurement being provided (floorspace or site-area)</t>
         </is>
       </c>
-      <c r="G53" s="2" t="inlineStr">
+      <c r="H53" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H53" s="2" t="inlineStr">
+      <c r="I53" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2141,17 +2275,18 @@
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr">
         <is>
           <t>Exact figure of non-residential use</t>
         </is>
       </c>
-      <c r="G54" s="2" t="inlineStr">
+      <c r="H54" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H54" s="2" t="inlineStr">
+      <c r="I54" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2171,17 +2306,18 @@
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr">
         <is>
           <t>Lower bound of non-residential use for ranges</t>
         </is>
       </c>
-      <c r="G55" s="2" t="inlineStr">
+      <c r="H55" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H55" s="2" t="inlineStr">
+      <c r="I55" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2201,17 +2337,18 @@
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr">
         <is>
           <t>Upper bound of non-residential use for ranges</t>
         </is>
       </c>
-      <c r="G56" s="2" t="inlineStr">
+      <c r="H56" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H56" s="2" t="inlineStr">
+      <c r="I56" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2239,17 +2376,18 @@
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr">
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr">
         <is>
           <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
-      <c r="G57" s="2" t="inlineStr">
+      <c r="H57" s="2" t="inlineStr">
         <is>
           <t>wkt</t>
         </is>
       </c>
-      <c r="H57" s="2" t="inlineStr">
+      <c r="I57" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2269,17 +2407,18 @@
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
-      <c r="F58" s="2" t="inlineStr">
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G58" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2299,17 +2438,18 @@
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr">
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2329,17 +2469,18 @@
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
-      <c r="F60" s="2" t="inlineStr">
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
         <is>
           <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
-      <c r="G60" s="2" t="inlineStr">
+      <c r="H60" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H60" s="2" t="inlineStr">
+      <c r="I60" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2359,17 +2500,18 @@
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr">
         <is>
           <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
-      <c r="G61" s="2" t="inlineStr">
+      <c r="H61" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H61" s="2" t="inlineStr">
+      <c r="I61" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2389,17 +2531,18 @@
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
-      <c r="F62" s="2" t="inlineStr">
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr">
         <is>
           <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
-      <c r="G62" s="2" t="inlineStr">
+      <c r="H62" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H62" s="2" t="inlineStr">
+      <c r="I62" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2419,17 +2562,18 @@
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
-      <c r="F63" s="2" t="inlineStr">
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr">
         <is>
           <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
-      <c r="G63" s="2" t="inlineStr">
+      <c r="H63" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H63" s="2" t="inlineStr">
+      <c r="I63" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2449,17 +2593,18 @@
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="2" t="inlineStr">
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr">
         <is>
           <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2479,17 +2624,18 @@
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr">
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr">
         <is>
           <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2517,17 +2663,18 @@
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
-      <c r="F66" s="2" t="inlineStr">
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr">
         <is>
           <t>Numeric value representing a measurement or quantity</t>
         </is>
       </c>
-      <c r="G66" s="2" t="inlineStr">
+      <c r="H66" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H66" s="2" t="inlineStr">
+      <c r="I66" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2547,17 +2694,18 @@
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr">
+      <c r="F67" s="2" t="inlineStr"/>
+      <c r="G67" s="2" t="inlineStr">
         <is>
           <t>Unit of measurement for a value</t>
         </is>
       </c>
-      <c r="G67" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2577,17 +2725,18 @@
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr"/>
-      <c r="F68" s="2" t="inlineStr">
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr">
         <is>
           <t>Whether the information was provided by the applicant or calculated by the system</t>
         </is>
       </c>
-      <c r="G68" s="2" t="inlineStr">
+      <c r="H68" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H68" s="2" t="inlineStr">
+      <c r="I68" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2611,17 +2760,18 @@
           <t>Use</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr">
+      <c r="F69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr">
         <is>
           <t>A use class or type of use</t>
         </is>
       </c>
-      <c r="G69" s="2" t="inlineStr">
+      <c r="H69" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H69" s="2" t="inlineStr">
+      <c r="I69" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2645,17 +2795,18 @@
           <t>Specified use</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr">
         <is>
           <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2675,17 +2826,18 @@
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="2" t="inlineStr">
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr">
         <is>
           <t>Total floorspace for a use in square metres</t>
         </is>
       </c>
-      <c r="G71" s="2" t="inlineStr">
+      <c r="H71" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H71" s="2" t="inlineStr">
+      <c r="I71" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2701,17 +2853,18 @@
       </c>
       <c r="D72" s="2" t="inlineStr"/>
       <c r="E72" s="2" t="inlineStr"/>
-      <c r="F72" s="2" t="inlineStr">
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr">
         <is>
           <t>A list of the known constraints affecting the site</t>
         </is>
       </c>
-      <c r="G72" s="2" t="inlineStr">
+      <c r="H72" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H72" s="2" t="inlineStr">
+      <c r="I72" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2731,17 +2884,18 @@
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
-      <c r="F73" s="2" t="inlineStr">
+      <c r="F73" s="2" t="inlineStr"/>
+      <c r="G73" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G73" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2761,17 +2915,18 @@
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
-      <c r="F74" s="2" t="inlineStr">
+      <c r="F74" s="2" t="inlineStr"/>
+      <c r="G74" s="2" t="inlineStr">
         <is>
           <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
-      <c r="G74" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2791,17 +2946,18 @@
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
-      <c r="F75" s="2" t="inlineStr">
+      <c r="F75" s="2" t="inlineStr"/>
+      <c r="G75" s="2" t="inlineStr">
         <is>
           <t>Additional details or information about an item</t>
         </is>
       </c>
-      <c r="G75" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>

--- a/generated/spreadsheet/permission-in-principle-pip.xlsx
+++ b/generated/spreadsheet/permission-in-principle-pip.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">

--- a/generated/spreadsheet/permission-in-principle-pip.xlsx
+++ b/generated/spreadsheet/permission-in-principle-pip.xlsx
@@ -611,7 +611,7 @@
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">

--- a/generated/spreadsheet/permission-in-principle-pip.xlsx
+++ b/generated/spreadsheet/permission-in-principle-pip.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,12 +847,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1032,22 +1032,18 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1057,7 +1053,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1076,13 +1072,13 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1111,48 +1107,52 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1162,21 +1162,13 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1184,14 +1176,18 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1201,7 +1197,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1220,13 +1216,13 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1236,7 +1232,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1255,13 +1251,13 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1290,13 +1286,13 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1325,13 +1321,13 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1341,7 +1337,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1355,18 +1351,14 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1390,19 +1382,19 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1412,58 +1404,58 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n"/>
-      <c r="B28" s="2" t="n"/>
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1487,14 +1479,18 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -1504,7 +1500,7 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1523,18 +1519,18 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -1544,51 +1540,47 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1596,14 +1588,18 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1613,7 +1609,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1632,13 +1628,13 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -1648,7 +1644,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1667,13 +1663,13 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -1702,13 +1698,13 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1737,13 +1733,13 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1753,32 +1749,32 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n"/>
-      <c r="B38" s="2" t="n"/>
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1788,32 +1784,28 @@
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A39" s="2" t="n"/>
+      <c r="B39" s="2" t="n"/>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1837,14 +1829,18 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1854,7 +1850,7 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1873,18 +1869,18 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
@@ -1894,54 +1890,54 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -1949,12 +1945,12 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
@@ -1964,19 +1960,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -1984,17 +1972,17 @@
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2003,7 +1991,7 @@
       <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -2011,7 +1999,7 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -2026,11 +2014,19 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -2038,7 +2034,7 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -2048,24 +2044,16 @@
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2073,12 +2061,12 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2092,7 +2080,7 @@
       <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2100,12 +2088,12 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -2115,11 +2103,19 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposed development including any non-residential development</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Details of the residential and non-residential parts of the proposed development.</t>
+        </is>
+      </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -2127,7 +2123,7 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Description of proposed development including non-residential development</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
@@ -2142,19 +2138,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposed development including any non-residential development</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>Details of the residential and non-residential parts of the proposed development.</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Net dwellings minimum</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -2162,12 +2150,12 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Description of proposed development including non-residential development</t>
+          <t>The minimum number of net additional dwellings proposed as part of the development, accounting for any existing dwellings lost and new dwellings created</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
@@ -2181,7 +2169,7 @@
       <c r="B51" s="2" t="n"/>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Net dwellings minimum</t>
+          <t>Net dwellings maximum</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -2189,7 +2177,7 @@
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>The minimum number of net additional dwellings proposed as part of the development, accounting for any existing dwellings lost and new dwellings created</t>
+          <t>The maximum number of net additional dwellings proposed as part of the development, allowing for flexibility in the final housing numbers</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
@@ -2208,20 +2196,24 @@
       <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Net dwellings maximum</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="inlineStr"/>
+          <t>Non-residential use[]</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>Non-residential measurement type</t>
+        </is>
+      </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>The maximum number of net additional dwellings proposed as part of the development, allowing for flexibility in the final housing numbers</t>
+          <t>Type of measurement being provided (floorspace or site-area)</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
@@ -2240,24 +2232,24 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Non-residential measurement type</t>
+          <t>Exact value</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Type of measurement being provided (floorspace or site-area)</t>
+          <t>Exact figure of non-residential use</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2271,14 +2263,14 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Exact value</t>
+          <t>Minimum value</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Exact figure of non-residential use</t>
+          <t>Lower bound of non-residential use for ranges</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -2302,14 +2294,14 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Minimum value</t>
+          <t>Maximum value</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Lower bound of non-residential use for ranges</t>
+          <t>Upper bound of non-residential use for ranges</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -2324,28 +2316,36 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Non-residential use[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Maximum value</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Upper bound of non-residential use for ranges</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
@@ -2355,16 +2355,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A57" s="2" t="n"/>
+      <c r="B57" s="2" t="n"/>
       <c r="C57" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -2372,19 +2364,19 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
@@ -2403,14 +2395,14 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -2434,19 +2426,19 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
@@ -2465,14 +2457,14 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -2496,14 +2488,14 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -2527,14 +2519,14 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -2558,19 +2550,19 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
@@ -2589,14 +2581,14 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -2611,47 +2603,47 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n"/>
-      <c r="B65" s="2" t="n"/>
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Site information</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>Any additional relevant information about the development site.</t>
+        </is>
+      </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Site area</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Value</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Numeric value representing a measurement or quantity</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>Site information</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>Any additional relevant information about the development site.</t>
-        </is>
-      </c>
+      <c r="A66" s="2" t="n"/>
+      <c r="B66" s="2" t="n"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
           <t>Site area</t>
@@ -2659,19 +2651,19 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Numeric value representing a measurement or quantity</t>
+          <t>Unit of measurement for a value</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
@@ -2690,24 +2682,24 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>Provided by</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Unit of measurement for a value</t>
+          <t>Whether the information was provided by the applicant or calculated by the system</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2716,19 +2708,23 @@
       <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Site area</t>
+          <t>Existing use[]</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>Provided by</t>
-        </is>
-      </c>
-      <c r="E68" s="2" t="inlineStr"/>
+          <t>Uses[]</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Whether the information was provided by the applicant or calculated by the system</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -2738,7 +2734,7 @@
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2757,23 +2753,23 @@
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Specified use</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2787,28 +2783,24 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>Uses[]</t>
-        </is>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>Specified use</t>
-        </is>
-      </c>
+          <t>Floorspace</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>Total floorspace for a use in square metres</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2817,24 +2809,20 @@
       <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Existing use[]</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>Floorspace</t>
-        </is>
-      </c>
+          <t>Known constraints[]</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr"/>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Total floorspace for a use in square metres</t>
+          <t>A list of the known constraints affecting the site</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
@@ -2848,20 +2836,24 @@
       <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Known constraints[]</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>A list of the known constraints affecting the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
@@ -2880,14 +2872,14 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
@@ -2911,14 +2903,14 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Details</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Additional details or information about an item</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
@@ -2927,37 +2919,6 @@
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n"/>
-      <c r="B75" s="2" t="n"/>
-      <c r="C75" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D75" s="2" t="inlineStr">
-        <is>
-          <t>Details</t>
-        </is>
-      </c>
-      <c r="E75" s="2" t="inlineStr"/>
-      <c r="F75" s="2" t="inlineStr"/>
-      <c r="G75" s="2" t="inlineStr">
-        <is>
-          <t>Additional details or information about an item</t>
-        </is>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I75" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2965,28 +2926,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="A43"/>
-    <mergeCell ref="B66:B75"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="A57:A65"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="B43"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="A66:A75"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A65:A74"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B65:B74"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/permission-in-principle-pip.xlsx
+++ b/generated/spreadsheet/permission-in-principle-pip.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,17 +964,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,22 +993,18 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1018,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1037,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1072,48 +1068,52 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1123,21 +1123,13 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1145,14 +1137,18 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1162,7 +1158,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1181,13 +1177,13 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1197,7 +1193,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1216,13 +1212,13 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1251,13 +1247,13 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1286,13 +1282,13 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1302,7 +1298,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1316,18 +1312,14 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1351,19 +1343,19 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1373,58 +1365,58 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n"/>
-      <c r="B27" s="2" t="n"/>
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1448,14 +1440,18 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1465,7 +1461,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1484,18 +1480,18 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -1505,51 +1501,47 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1557,14 +1549,18 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1574,7 +1570,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1593,13 +1589,13 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1609,7 +1605,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1628,13 +1624,13 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -1663,13 +1659,13 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -1698,13 +1694,13 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1714,32 +1710,32 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n"/>
-      <c r="B37" s="2" t="n"/>
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1749,32 +1745,28 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="2" t="n"/>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1798,14 +1790,18 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1815,7 +1811,7 @@
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1834,18 +1830,18 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
@@ -1855,54 +1851,54 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
@@ -1910,12 +1906,12 @@
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
@@ -1925,19 +1921,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -1945,17 +1933,17 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1952,7 @@
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -1972,7 +1960,7 @@
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -1987,11 +1975,19 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -1999,7 +1995,7 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -2009,24 +2005,16 @@
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -2034,12 +2022,12 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
@@ -2053,7 +2041,7 @@
       <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2061,12 +2049,12 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2076,11 +2064,19 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposed development including any non-residential development</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Details of the residential and non-residential parts of the proposed development.</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2088,7 +2084,7 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Description of proposed development including non-residential development</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
@@ -2103,19 +2099,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposed development including any non-residential development</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>Details of the residential and non-residential parts of the proposed development.</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Net dwellings minimum</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -2123,12 +2111,12 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Description of proposed development including non-residential development</t>
+          <t>The minimum number of net additional dwellings proposed as part of the development, accounting for any existing dwellings lost and new dwellings created</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
@@ -2142,7 +2130,7 @@
       <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Net dwellings minimum</t>
+          <t>Net dwellings maximum</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -2150,7 +2138,7 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>The minimum number of net additional dwellings proposed as part of the development, accounting for any existing dwellings lost and new dwellings created</t>
+          <t>The maximum number of net additional dwellings proposed as part of the development, allowing for flexibility in the final housing numbers</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -2169,20 +2157,24 @@
       <c r="B51" s="2" t="n"/>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Net dwellings maximum</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="inlineStr"/>
+          <t>Non-residential use[]</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>Non-residential measurement type</t>
+        </is>
+      </c>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>The maximum number of net additional dwellings proposed as part of the development, allowing for flexibility in the final housing numbers</t>
+          <t>Type of measurement being provided (floorspace or site-area)</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
@@ -2201,24 +2193,24 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Non-residential measurement type</t>
+          <t>Exact value</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Type of measurement being provided (floorspace or site-area)</t>
+          <t>Exact figure of non-residential use</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2232,14 +2224,14 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Exact value</t>
+          <t>Minimum value</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Exact figure of non-residential use</t>
+          <t>Lower bound of non-residential use for ranges</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
@@ -2263,14 +2255,14 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Minimum value</t>
+          <t>Maximum value</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Lower bound of non-residential use for ranges</t>
+          <t>Upper bound of non-residential use for ranges</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -2285,28 +2277,36 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n"/>
-      <c r="B55" s="2" t="n"/>
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Non-residential use[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Maximum value</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Upper bound of non-residential use for ranges</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
@@ -2316,16 +2316,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
       <c r="C56" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -2333,19 +2325,19 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
@@ -2364,14 +2356,14 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -2395,19 +2387,19 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
@@ -2426,14 +2418,14 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -2457,14 +2449,14 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -2488,14 +2480,14 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -2519,19 +2511,19 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
@@ -2550,14 +2542,14 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -2572,47 +2564,47 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n"/>
-      <c r="B64" s="2" t="n"/>
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Site information</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Any additional relevant information about the development site.</t>
+        </is>
+      </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Site area</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Value</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Numeric value representing a measurement or quantity</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>Site information</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>Any additional relevant information about the development site.</t>
-        </is>
-      </c>
+      <c r="A65" s="2" t="n"/>
+      <c r="B65" s="2" t="n"/>
       <c r="C65" s="2" t="inlineStr">
         <is>
           <t>Site area</t>
@@ -2620,19 +2612,19 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Numeric value representing a measurement or quantity</t>
+          <t>Unit of measurement for a value</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
@@ -2651,24 +2643,24 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>Provided by</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Unit of measurement for a value</t>
+          <t>Whether the information was provided by the applicant or calculated by the system</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2677,19 +2669,23 @@
       <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Site area</t>
+          <t>Existing use[]</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>Provided by</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="inlineStr"/>
+          <t>Uses[]</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Whether the information was provided by the applicant or calculated by the system</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -2699,7 +2695,7 @@
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2718,23 +2714,23 @@
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Specified use</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2748,28 +2744,24 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>Uses[]</t>
-        </is>
-      </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>Specified use</t>
-        </is>
-      </c>
+          <t>Floorspace</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>Total floorspace for a use in square metres</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2778,24 +2770,20 @@
       <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Existing use[]</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="inlineStr">
-        <is>
-          <t>Floorspace</t>
-        </is>
-      </c>
+          <t>Known constraints[]</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr"/>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Total floorspace for a use in square metres</t>
+          <t>A list of the known constraints affecting the site</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
@@ -2809,20 +2797,24 @@
       <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Known constraints[]</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>A list of the known constraints affecting the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
@@ -2841,14 +2833,14 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
@@ -2872,14 +2864,14 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Details</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Additional details or information about an item</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
@@ -2888,37 +2880,6 @@
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n"/>
-      <c r="B74" s="2" t="n"/>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr">
-        <is>
-          <t>Details</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr"/>
-      <c r="F74" s="2" t="inlineStr"/>
-      <c r="G74" s="2" t="inlineStr">
-        <is>
-          <t>Additional details or information about an item</t>
-        </is>
-      </c>
-      <c r="H74" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I74" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2926,28 +2887,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A65:A74"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B42"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B65:B74"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A42"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="B64:B73"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A55:A63"/>
+    <mergeCell ref="A64:A73"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B41"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B55:B63"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A19:A26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/permission-in-principle-pip.xlsx
+++ b/generated/spreadsheet/permission-in-principle-pip.xlsx
@@ -842,27 +842,23 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -886,12 +882,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +897,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -925,12 +921,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +936,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -964,17 +960,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,18 +989,22 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1033,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1068,52 +1068,48 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>Application</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr"/>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1123,13 +1119,21 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1137,18 +1141,14 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1177,13 +1177,13 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1212,13 +1212,13 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1247,13 +1247,13 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1282,13 +1282,13 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1312,14 +1312,18 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1343,19 +1347,19 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>User role</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1365,58 +1369,58 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="2" t="n"/>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr"/>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>User role</t>
+        </is>
+      </c>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n"/>
-      <c r="B28" s="2" t="n"/>
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1440,18 +1444,14 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1480,18 +1480,18 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -1501,47 +1501,51 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1549,18 +1553,14 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1589,13 +1589,13 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1624,13 +1624,13 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -1659,13 +1659,13 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -1694,13 +1694,13 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1710,32 +1710,32 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr"/>
-      <c r="E37" s="2" t="inlineStr"/>
+          <t>Applicants[]</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1745,28 +1745,32 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n"/>
-      <c r="B38" s="2" t="n"/>
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1790,18 +1794,14 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1830,18 +1830,18 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
@@ -1851,54 +1851,54 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Checklist</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Conflict of interest</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
@@ -1906,12 +1906,12 @@
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
@@ -1921,11 +1921,19 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+        </is>
+      </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -1933,17 +1941,17 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1960,7 @@
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -1960,7 +1968,7 @@
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -1975,19 +1983,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -1995,7 +1995,7 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -2005,16 +2005,24 @@
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -2022,12 +2030,12 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
@@ -2041,7 +2049,7 @@
       <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2049,12 +2057,12 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2064,19 +2072,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposed development including any non-residential development</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>Details of the residential and non-residential parts of the proposed development.</t>
-        </is>
-      </c>
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2084,7 +2084,7 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Description of proposed development including non-residential development</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
@@ -2099,11 +2099,19 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposed development including any non-residential development</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Details of the residential and non-residential parts of the proposed development.</t>
+        </is>
+      </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Net dwellings minimum</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -2111,12 +2119,12 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>The minimum number of net additional dwellings proposed as part of the development, accounting for any existing dwellings lost and new dwellings created</t>
+          <t>Description of proposed development including non-residential development</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
@@ -2130,7 +2138,7 @@
       <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Net dwellings maximum</t>
+          <t>Net dwellings minimum</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -2138,7 +2146,7 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>The maximum number of net additional dwellings proposed as part of the development, allowing for flexibility in the final housing numbers</t>
+          <t>The minimum number of net additional dwellings proposed as part of the development, accounting for any existing dwellings lost and new dwellings created</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -2157,24 +2165,20 @@
       <c r="B51" s="2" t="n"/>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Non-residential use[]</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="inlineStr">
-        <is>
-          <t>Non-residential measurement type</t>
-        </is>
-      </c>
+          <t>Net dwellings maximum</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Type of measurement being provided (floorspace or site-area)</t>
+          <t>The maximum number of net additional dwellings proposed as part of the development, allowing for flexibility in the final housing numbers</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
@@ -2193,24 +2197,24 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Exact value</t>
+          <t>Non-residential measurement type</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Exact figure of non-residential use</t>
+          <t>Type of measurement being provided (floorspace or site-area)</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2224,14 +2228,14 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Minimum value</t>
+          <t>Exact value</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Lower bound of non-residential use for ranges</t>
+          <t>Exact figure of non-residential use</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
@@ -2255,14 +2259,14 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Maximum value</t>
+          <t>Minimum value</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Upper bound of non-residential use for ranges</t>
+          <t>Lower bound of non-residential use for ranges</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -2277,36 +2281,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="2" t="n"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Non-residential use[]</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Maximum value</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Upper bound of non-residential use for ranges</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
@@ -2316,8 +2312,16 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -2325,19 +2329,19 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
@@ -2356,14 +2360,14 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -2387,19 +2391,19 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
@@ -2418,14 +2422,14 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -2449,14 +2453,14 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -2480,14 +2484,14 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -2511,19 +2515,19 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
@@ -2542,14 +2546,14 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -2564,47 +2568,47 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>Site information</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>Any additional relevant information about the development site.</t>
-        </is>
-      </c>
+      <c r="A64" s="2" t="n"/>
+      <c r="B64" s="2" t="n"/>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Site area</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Numeric value representing a measurement or quantity</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n"/>
-      <c r="B65" s="2" t="n"/>
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Site information</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>Any additional relevant information about the development site.</t>
+        </is>
+      </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
           <t>Site area</t>
@@ -2612,19 +2616,19 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>Value</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Unit of measurement for a value</t>
+          <t>Numeric value representing a measurement or quantity</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
@@ -2643,24 +2647,24 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>Provided by</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Whether the information was provided by the applicant or calculated by the system</t>
+          <t>Unit of measurement for a value</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2669,23 +2673,19 @@
       <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Existing use[]</t>
+          <t>Site area</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>Uses[]</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>Use</t>
-        </is>
-      </c>
+          <t>Provided by</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr"/>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Whether the information was provided by the applicant or calculated by the system</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2714,23 +2714,23 @@
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Specified use</t>
+          <t>Use</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2744,24 +2744,28 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>Floorspace</t>
-        </is>
-      </c>
-      <c r="E69" s="2" t="inlineStr"/>
+          <t>Uses[]</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>Specified use</t>
+        </is>
+      </c>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Total floorspace for a use in square metres</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2770,20 +2774,24 @@
       <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Known constraints[]</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="inlineStr"/>
+          <t>Existing use[]</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>Floorspace</t>
+        </is>
+      </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>A list of the known constraints affecting the site</t>
+          <t>Total floorspace for a use in square metres</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
@@ -2797,24 +2805,20 @@
       <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Known constraints[]</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr"/>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A list of the known constraints affecting the site</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
@@ -2833,14 +2837,14 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
@@ -2887,28 +2891,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B64:B73"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A55:A63"/>
-    <mergeCell ref="A64:A73"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B41"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B55:B63"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B65:B73"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/permission-in-principle-pip.xlsx
+++ b/generated/spreadsheet/permission-in-principle-pip.xlsx
@@ -708,7 +708,7 @@
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">

--- a/generated/spreadsheet/permission-in-principle-pip.xlsx
+++ b/generated/spreadsheet/permission-in-principle-pip.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
